--- a/downloads/Student Registration File.xlsx
+++ b/downloads/Student Registration File.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\arms-alternate\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9091A05B-7D1D-430D-B980-F6F3F152596D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786976DB-F3B3-46AC-8F7B-02FFE8C040C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D10A3224-443A-45BA-BA73-F1FD2B5620BD}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIGER DELTA UNIVERSITY</t>
   </si>
@@ -45,19 +39,16 @@
     <t>Mat/Registration Number</t>
   </si>
   <si>
-    <t>Fisrt Name</t>
-  </si>
-  <si>
     <t>Surname</t>
   </si>
   <si>
     <t>Admission Level</t>
   </si>
   <si>
-    <t>Admission session</t>
-  </si>
-  <si>
     <t>S/N</t>
+  </si>
+  <si>
+    <t>First Name</t>
   </si>
 </sst>
 </file>
@@ -182,13 +173,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD96BDF6-C77B-4D68-8ADA-2F730EFE3286}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,94 +508,87 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/downloads/Student Registration File.xlsx
+++ b/downloads/Student Registration File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\arms-alternate\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786976DB-F3B3-46AC-8F7B-02FFE8C040C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C69DD2-C93F-45D6-AC88-4328615DE81D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{D10A3224-443A-45BA-BA73-F1FD2B5620BD}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
